--- a/PCB_New_U540/new_u450_rohm_cpl1.xlsx
+++ b/PCB_New_U540/new_u450_rohm_cpl1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Duy\PCB_New_U540\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30746254-D629-4CCE-8BA6-D3DFD0E8859E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B95EC7-B202-45D4-8E79-FC6905796736}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -524,7 +525,7 @@
   <dimension ref="A1:F134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1931,4 +1932,17 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B98FCE3-3616-48F4-A44E-D5FDF1EAB119}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>